--- a/medicine/Handicap/Liste_des_musées_français_accessibles_aux_déficients_visuels/Liste_des_musées_français_accessibles_aux_déficients_visuels.xlsx
+++ b/medicine/Handicap/Liste_des_musées_français_accessibles_aux_déficients_visuels/Liste_des_musées_français_accessibles_aux_déficients_visuels.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_mus%C3%A9es_fran%C3%A7ais_accessibles_aux_d%C3%A9ficients_visuels</t>
+          <t>Liste_des_musées_français_accessibles_aux_déficients_visuels</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article recense les musées français qui sont accessibles au déficients visuels.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_mus%C3%A9es_fran%C3%A7ais_accessibles_aux_d%C3%A9ficients_visuels</t>
+          <t>Liste_des_musées_français_accessibles_aux_déficients_visuels</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,57 +525,742 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Alpes-de-Haute-Provence
-Musée de Salagon
-Conservatoire ethnologique de Haute Provence de Mane
-Alpes-Maritimes
-Musée archéologique de Nice-Cimiez à Nice
-Musée international de la Parfumerie à Grasse
-Cher
-Musée Laumonnier (trains) à Vierzon
-Doubs
-Musée de plein air des maisons comtoises à Nancray
-Gard
-Musée archéologique de Nîmes
-Gironde
-Musée d'Aquitaine à Bordeaux
-Hérault
-Musée de la cloche et de la sonnaille à Hérépian
-Musée des Moulages ou Musée de l'Empereur Antonin à Montpellier
-Indre-et-Loire
-Musée départemental de préhistoire d'Indre-et-Loire au Grand-Pressigny
-Loir-et-Cher
-Château de Blois
-Loire-Atlantique
-Musée du château des ducs de Bretagne à Nantes
-Lot
-Musée Champollion à Figeac
-Maine-et-Loire
-Musée des beaux-arts d'Angers
-Marne
-Musée Saint-Denis de Reims
-Musée Saint-Rémi de Reims
-Nord
-Musée des beaux-arts de Valenciennes
-Pas-de-Calais
-Musée des beaux-arts d'Arras
-Musée des beaux-arts de Calais
-Bas-Rhin
-Musée d'art moderne et contemporain (Strasbourg)
+          <t>Alpes-de-Haute-Provence</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Musée de Salagon
+Conservatoire ethnologique de Haute Provence de Mane</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_musées_français_accessibles_aux_déficients_visuels</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_mus%C3%A9es_fran%C3%A7ais_accessibles_aux_d%C3%A9ficients_visuels</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Par département</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Alpes-Maritimes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Musée archéologique de Nice-Cimiez à Nice
+Musée international de la Parfumerie à Grasse</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_musées_français_accessibles_aux_déficients_visuels</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_mus%C3%A9es_fran%C3%A7ais_accessibles_aux_d%C3%A9ficients_visuels</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Par département</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cher</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Musée Laumonnier (trains) à Vierzon</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_musées_français_accessibles_aux_déficients_visuels</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_mus%C3%A9es_fran%C3%A7ais_accessibles_aux_d%C3%A9ficients_visuels</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Par département</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Doubs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Musée de plein air des maisons comtoises à Nancray</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_musées_français_accessibles_aux_déficients_visuels</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_mus%C3%A9es_fran%C3%A7ais_accessibles_aux_d%C3%A9ficients_visuels</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Par département</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gard</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Musée archéologique de Nîmes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_musées_français_accessibles_aux_déficients_visuels</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_mus%C3%A9es_fran%C3%A7ais_accessibles_aux_d%C3%A9ficients_visuels</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Par département</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Gironde</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Musée d'Aquitaine à Bordeaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_musées_français_accessibles_aux_déficients_visuels</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_mus%C3%A9es_fran%C3%A7ais_accessibles_aux_d%C3%A9ficients_visuels</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Par département</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Hérault</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Musée de la cloche et de la sonnaille à Hérépian
+Musée des Moulages ou Musée de l'Empereur Antonin à Montpellier</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_musées_français_accessibles_aux_déficients_visuels</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_mus%C3%A9es_fran%C3%A7ais_accessibles_aux_d%C3%A9ficients_visuels</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Par département</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Indre-et-Loire</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Musée départemental de préhistoire d'Indre-et-Loire au Grand-Pressigny</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_musées_français_accessibles_aux_déficients_visuels</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_mus%C3%A9es_fran%C3%A7ais_accessibles_aux_d%C3%A9ficients_visuels</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Par département</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Loir-et-Cher</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Château de Blois</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_musées_français_accessibles_aux_déficients_visuels</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_mus%C3%A9es_fran%C3%A7ais_accessibles_aux_d%C3%A9ficients_visuels</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Par département</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Loire-Atlantique</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Musée du château des ducs de Bretagne à Nantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_musées_français_accessibles_aux_déficients_visuels</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_mus%C3%A9es_fran%C3%A7ais_accessibles_aux_d%C3%A9ficients_visuels</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Par département</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Lot</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Musée Champollion à Figeac</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_musées_français_accessibles_aux_déficients_visuels</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_mus%C3%A9es_fran%C3%A7ais_accessibles_aux_d%C3%A9ficients_visuels</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Par département</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Maine-et-Loire</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Musée des beaux-arts d'Angers</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_musées_français_accessibles_aux_déficients_visuels</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_mus%C3%A9es_fran%C3%A7ais_accessibles_aux_d%C3%A9ficients_visuels</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Par département</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Marne</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Musée Saint-Denis de Reims
+Musée Saint-Rémi de Reims</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_musées_français_accessibles_aux_déficients_visuels</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_mus%C3%A9es_fran%C3%A7ais_accessibles_aux_d%C3%A9ficients_visuels</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Par département</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Nord</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Musée des beaux-arts de Valenciennes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_musées_français_accessibles_aux_déficients_visuels</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_mus%C3%A9es_fran%C3%A7ais_accessibles_aux_d%C3%A9ficients_visuels</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Par département</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Musée des beaux-arts d'Arras
+Musée des beaux-arts de Calais</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_musées_français_accessibles_aux_déficients_visuels</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_mus%C3%A9es_fran%C3%A7ais_accessibles_aux_d%C3%A9ficients_visuels</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Par département</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Bas-Rhin</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Musée d'art moderne et contemporain (Strasbourg)
 Musée de l'Œuvre Notre-Dame à Strasbourg
-Musée zoologique de la ville de Strasbourg
-Haut-Rhin
-Écomusée d'Alsace à Ungersheim
+Musée zoologique de la ville de Strasbourg</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_musées_français_accessibles_aux_déficients_visuels</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_mus%C3%A9es_fran%C3%A7ais_accessibles_aux_d%C3%A9ficients_visuels</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Par département</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Haut-Rhin</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Écomusée d'Alsace à Ungersheim
 Muséum d'histoire naturelle à Colmar
-Musée Unterlinden à Colmar
-Rhône
-Musée de l'automobile Henri-Malartre à Rochetaillée-sur-Saône
-Saône-et-Loire
-Musée Vivant-Denon à Chalon-sur-Saône
-Savoie
-Musée Faure à Aix-les-Bains
-Paris
-Musée du 11 Conti - Monnaie de Paris[1]
+Musée Unterlinden à Colmar</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_musées_français_accessibles_aux_déficients_visuels</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_mus%C3%A9es_fran%C3%A7ais_accessibles_aux_d%C3%A9ficients_visuels</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Par département</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Rhône</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Musée de l'automobile Henri-Malartre à Rochetaillée-sur-Saône</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_musées_français_accessibles_aux_déficients_visuels</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_mus%C3%A9es_fran%C3%A7ais_accessibles_aux_d%C3%A9ficients_visuels</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Par département</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Saône-et-Loire</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Musée Vivant-Denon à Chalon-sur-Saône</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_musées_français_accessibles_aux_déficients_visuels</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_mus%C3%A9es_fran%C3%A7ais_accessibles_aux_d%C3%A9ficients_visuels</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Par département</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Savoie</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Musée Faure à Aix-les-Bains</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_musées_français_accessibles_aux_déficients_visuels</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_mus%C3%A9es_fran%C3%A7ais_accessibles_aux_d%C3%A9ficients_visuels</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Par département</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Musée du 11 Conti - Monnaie de Paris
 Musée Bourdelle
 Musée Carnavalet
 Musée en Herbe du Jardin d'acclimatation
@@ -571,11 +1268,79 @@
 Cité des sciences et de l'industrie
 Muséum national d'histoire naturelle et jardin des plantes
 Musée Valentin-Haüy
-Musée Guimet
-Deux-Sèvres
-Musée-conservatoire du machinisme et des pratiques agricoles à Prahecq
-Tarn-et-Garonne
-Musée Ingres à Montauban</t>
+Musée Guimet</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_musées_français_accessibles_aux_déficients_visuels</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_mus%C3%A9es_fran%C3%A7ais_accessibles_aux_d%C3%A9ficients_visuels</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Par département</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Deux-Sèvres</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Musée-conservatoire du machinisme et des pratiques agricoles à Prahecq</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_des_musées_français_accessibles_aux_déficients_visuels</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_mus%C3%A9es_fran%C3%A7ais_accessibles_aux_d%C3%A9ficients_visuels</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Par département</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Tarn-et-Garonne</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Musée Ingres à Montauban</t>
         </is>
       </c>
     </row>
